--- a/bots/crawl_ch/output/toilet_coop_2022-07-23.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-23.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -677,191 +677,191 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6346771</t>
+          <t>6568452</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-16-rollen/p/6346771</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16Rol</t>
+          <t>4x 50ST</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen 15.50 Schweizer Franken</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST 43% Aktion 6.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4947421</t>
+          <t>6346771</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-16-rollen/p/6346771</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>16Rol</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen 15.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6568452</t>
+          <t>4947421</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
+          <t>Oecoplan Taschentuch Calendula Box</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4x 50ST</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -886,17 +886,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST 43% Aktion 6.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -1026,50 +1026,50 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6695141</t>
+          <t>6691348</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>140ST</t>
+          <t>4x 60ST</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1094,156 +1094,156 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.40 Schweizer Franken</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 43% Aktion 6.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6873015</t>
+          <t>6695141</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12Rol</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>140ST</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.91/1Rol</t>
+          <t>0.02/1ST</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6691348</t>
+          <t>6873015</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4x 60ST</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>16</v>
-      </c>
+          <t>12Rol</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.91/1Rol</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 43% Aktion 6.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -1462,137 +1462,137 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>6346813</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>192BLT</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.98/1Rol</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6346813</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>192BLT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.98/1Rol</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2053,135 +2053,135 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6149220</t>
+          <t>6498679</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk.</t>
+          <t>Subito Haushaltspapier decor 12 Rollen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>72ST</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>7</v>
-      </c>
+          <t>600BLT</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.05/1ST</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk. 3.95 Schweizer Franken</t>
+          <t>Subito Haushaltspapier decor 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6498679</t>
+          <t>6149220</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>600BLT</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>72ST</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.05/1ST</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.50 Schweizer Franken</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk. 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-23 07:01:59</t>
+          <t>2022-07-23 20:58:56</t>
         </is>
       </c>
     </row>
